--- a/results/mp/logistic/corona/confidence/168/0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,6 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -64,99 +58,93 @@
     <t>no</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>better</t>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -164,6 +152,9 @@
   </si>
   <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>increase</t>
@@ -535,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,16 +608,16 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7465753424657534</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C4">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D4">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.8916666666666667</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5789473684210527</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5588235294117647</v>
+        <v>0.3197674418604651</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -796,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4285714285714285</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="C7">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3255813953488372</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,169 +855,97 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L8">
+        <v>85</v>
+      </c>
+      <c r="M8">
+        <v>85</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8015665796344648</v>
+      </c>
+      <c r="L9">
+        <v>307</v>
+      </c>
+      <c r="M9">
+        <v>307</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L10">
+        <v>46</v>
+      </c>
+      <c r="M10">
+        <v>46</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L8">
-        <v>30</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1610738255033557</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="K11">
+        <v>0.78125</v>
+      </c>
+      <c r="L11">
         <v>125</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.825065274151436</v>
-      </c>
-      <c r="L9">
-        <v>316</v>
-      </c>
-      <c r="M9">
-        <v>316</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1222222222222222</v>
-      </c>
-      <c r="C10">
-        <v>44</v>
-      </c>
-      <c r="D10">
-        <v>44</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>316</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8207547169811321</v>
-      </c>
-      <c r="L10">
-        <v>87</v>
-      </c>
-      <c r="M10">
-        <v>87</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.004078461837249951</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>37</v>
-      </c>
-      <c r="E11">
-        <v>0.43</v>
-      </c>
-      <c r="F11">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>5128</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L11">
-        <v>27</v>
-      </c>
       <c r="M11">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,21 +957,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8125</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,21 +983,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.8085106382978723</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1095,16 +1014,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.8055555555555556</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,47 +1035,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15">
+        <v>0.765625</v>
+      </c>
+      <c r="L15">
+        <v>98</v>
+      </c>
+      <c r="M15">
+        <v>98</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>30</v>
-      </c>
-      <c r="K15">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L15">
-        <v>46</v>
-      </c>
-      <c r="M15">
-        <v>46</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7926829268292683</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1168,21 +1087,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.78125</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,21 +1113,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7692307692307693</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1225,16 +1144,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7676056338028169</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L19">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.675</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1272,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1298,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1324,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6279069767441861</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.62</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.611764705882353</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L26">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M26">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.6031746031746031</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5966101694915255</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L28">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M28">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1480,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.574468085106383</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L29">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="M29">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5692307692307692</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5564853556485355</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L31">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>106</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5428571428571428</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4761904761904762</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1610,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.4157303370786517</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1636,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.2435897435897436</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1662,12 +1581,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K36">
         <v>0.01834862385321101</v>
